--- a/AgvServerClient通讯协议.xlsx
+++ b/AgvServerClient通讯协议.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="138">
   <si>
     <t>AGV的Server和Client间的通讯协议(Tcp/Ip)
 client端连接server端的固定端口8989端口.
@@ -611,6 +611,30 @@
   </si>
   <si>
     <t>&lt;y&gt;+&lt;x&gt;+&lt;agvid&gt;//可选项&lt;xWaitType&gt;&lt;xWaitTime&gt;&lt;yWaitType&gt;&lt;yWaitTime&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个任务的详情(包括站点信息、等待信息等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;taskid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;id&gt;&lt;produceTime&gt;&lt;doTime&gt;&lt;doneTime&gt;&lt;excuteCar&gt;&lt;status&gt;+&lt;datalist&gt;&lt;list&gt;&lt;list&gt;每一个list是一个任务节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,6 +726,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,7 +739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1019,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1031,59 +1055,59 @@
     <col min="2" max="2" width="61" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="132.625" customWidth="1"/>
+    <col min="6" max="6" width="178.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="144.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="135.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="144" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2111,76 +2135,45 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1" t="s">
+    <row r="83" spans="1:6">
+      <c r="B83" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" t="s">
+        <v>135</v>
+      </c>
+      <c r="F83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="B86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" t="s">
-        <v>93</v>
-      </c>
-      <c r="E86" t="s">
-        <v>87</v>
-      </c>
-      <c r="F86" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s">
-        <v>93</v>
-      </c>
-      <c r="E87" t="s">
-        <v>87</v>
-      </c>
-      <c r="F87" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="B88" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" t="s">
-        <v>93</v>
-      </c>
-      <c r="E88" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="B90" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -2189,10 +2182,10 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2203,57 +2196,119 @@
         <v>93</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" t="s">
-        <v>97</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
       </c>
       <c r="D92" t="s">
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="B93" t="s">
-        <v>101</v>
-      </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
         <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="F93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:6">
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" t="s">
+        <v>59</v>
+      </c>
+      <c r="F96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" t="s">
         <v>99</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AgvServerClient通讯协议.xlsx
+++ b/AgvServerClient通讯协议.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="140">
   <si>
     <t>AGV的Server和Client间的通讯协议(Tcp/Ip)
 client端连接server端的固定端口8989端口.
@@ -395,19 +395,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;from&gt;&lt;to&gt; 格式是yyyy-MM-dd hh:mm:ss &lt;level&gt;(级别)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询所有日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;level&gt;(级别)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -635,6 +627,22 @@
   </si>
   <si>
     <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;id&gt;&lt;produceTime&gt;&lt;doTime&gt;&lt;doneTime&gt;&lt;excuteCar&gt;&lt;status&gt;+&lt;datalist&gt;&lt;list&gt;&lt;list&gt;每一个list是一个任务节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;from&gt;&lt;to&gt; 格式是yyyy-MM-dd hh:mm:ss &lt;trace&gt; &lt;debug&gt; &lt;info&gt; &lt;warn&gt; &lt;error&gt; &lt;fatal&gt; (这些级别为true或者false，true表示包括这部分 false不包括)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;trace&gt; &lt;debug&gt; &lt;info&gt; &lt;warn&gt; &lt;error&gt; &lt;fatal&gt; (这些级别为true或者false，true表示包括这部分 false不包括)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个log包含如下内容 level time msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1073,7 +1081,7 @@
     </row>
     <row r="2" spans="1:9" ht="135.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1139,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1156,7 +1164,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1187,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1246,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1291,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1372,7 +1380,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -1406,12 +1414,12 @@
         <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1420,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -1434,7 +1442,7 @@
         <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1595,7 +1603,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -1638,12 +1646,12 @@
         <v>59</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -1652,7 +1660,7 @@
         <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
         <v>37</v>
@@ -1666,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -1674,24 +1682,24 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1699,30 +1707,30 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="B51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
         <v>108</v>
       </c>
-      <c r="E51" t="s">
-        <v>110</v>
-      </c>
       <c r="F51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1730,10 +1738,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" t="s">
         <v>108</v>
-      </c>
-      <c r="E52" t="s">
-        <v>110</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -1741,19 +1749,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
         <v>106</v>
       </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>108</v>
-      </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1761,10 +1769,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -1772,19 +1780,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="B55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1792,10 +1800,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -1820,7 +1828,7 @@
         <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1851,7 +1859,7 @@
         <v>66</v>
       </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1882,7 +1890,7 @@
         <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="2:6">
@@ -1913,7 +1921,7 @@
         <v>70</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -2137,19 +2145,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="B83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" t="s">
         <v>132</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
         <v>133</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>134</v>
-      </c>
-      <c r="E83" t="s">
-        <v>135</v>
-      </c>
-      <c r="F83" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2157,19 +2165,22 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E84" t="s">
+        <v>133</v>
+      </c>
+      <c r="F84" t="s">
         <v>135</v>
-      </c>
-      <c r="F84" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="F89" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
       <c r="B90" t="s">
@@ -2179,13 +2190,13 @@
         <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E90" t="s">
         <v>87</v>
       </c>
       <c r="F90" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2193,30 +2204,30 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E91" t="s">
         <v>87</v>
       </c>
       <c r="F91" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
         <v>92</v>
       </c>
-      <c r="C92" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" t="s">
-        <v>93</v>
-      </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F92" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2224,30 +2235,30 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" t="s">
         <v>93</v>
-      </c>
-      <c r="E93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="B94" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E94" t="s">
         <v>54</v>
       </c>
       <c r="F94" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2255,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
         <v>54</v>
@@ -2266,36 +2277,33 @@
     </row>
     <row r="96" spans="1:6">
       <c r="B96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E96" t="s">
         <v>59</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
-      </c>
-      <c r="F97" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="2:6">
@@ -2303,10 +2311,10 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F98" t="s">
         <v>12</v>

--- a/AgvServerClient通讯协议.xlsx
+++ b/AgvServerClient通讯协议.xlsx
@@ -553,10 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;username&gt; + &lt;oldpassword&gt; +&lt;newpassword&gt;&lt;id&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)&lt;id&gt;(添加成功后该用户的id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,6 +639,10 @@
   </si>
   <si>
     <t>一个log包含如下内容 level time msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;username&gt; + &lt;oldpassword&gt; +&lt;newpassword&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="2" spans="1:9" ht="135.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1147,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1164,7 +1164,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1195,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1254,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1299,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1792,7 +1792,7 @@
         <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1828,7 +1828,7 @@
         <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1859,7 +1859,7 @@
         <v>66</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1890,7 +1890,7 @@
         <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="2:6">
@@ -1921,7 +1921,7 @@
         <v>70</v>
       </c>
       <c r="F67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -2145,19 +2145,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="B83" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" t="s">
         <v>130</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>131</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>132</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>133</v>
-      </c>
-      <c r="F83" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2165,13 +2165,13 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" t="s">
         <v>132</v>
       </c>
-      <c r="E84" t="s">
-        <v>133</v>
-      </c>
       <c r="F84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2179,7 +2179,7 @@
         <v>89</v>
       </c>
       <c r="F89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2196,7 +2196,7 @@
         <v>87</v>
       </c>
       <c r="F90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2224,10 +2224,10 @@
         <v>92</v>
       </c>
       <c r="E92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2238,7 +2238,7 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F93" t="s">
         <v>93</v>
@@ -2258,7 +2258,7 @@
         <v>54</v>
       </c>
       <c r="F94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:6">

--- a/AgvServerClient通讯协议.xlsx
+++ b/AgvServerClient通讯协议.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="143">
   <si>
     <t>AGV的Server和Client间的通讯协议(Tcp/Ip)
 client端连接server端的固定端口8989端口.
@@ -643,6 +643,18 @@
   </si>
   <si>
     <t>&lt;username&gt; + &lt;oldpassword&gt; +&lt;newpassword&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;line&gt;&lt;arc&gt;&lt;station&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1308,8 +1320,9 @@
       </c>
     </row>
     <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1318,13 +1331,14 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -1332,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
         <v>29</v>
@@ -1340,7 +1354,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1349,7 +1363,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -1363,15 +1377,15 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1380,13 +1394,13 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:6">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -1394,100 +1408,100 @@
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
-      <c r="B28" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="C29" t="s">
-        <v>11</v>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
       </c>
       <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="B30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
         <v>97</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1"/>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:6" ht="15" customHeight="1"/>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -1496,7 +1510,7 @@
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
         <v>37</v>
@@ -1510,15 +1524,15 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -1527,32 +1541,29 @@
         <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -1561,7 +1572,7 @@
         <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
         <v>45</v>
@@ -1569,7 +1580,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="B40" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -1578,7 +1589,7 @@
         <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
         <v>45</v>
@@ -1586,7 +1597,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="B41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -1595,15 +1606,15 @@
         <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="B42" s="2" t="s">
-        <v>100</v>
+      <c r="B42" t="s">
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -1612,113 +1623,116 @@
         <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6">
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>55</v>
+      <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>116</v>
+        <v>54</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="B45" t="s">
-        <v>98</v>
-      </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
         <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="C46" t="s">
-        <v>11</v>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D46" t="s">
         <v>35</v>
       </c>
       <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
         <v>97</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="B49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="B51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -1727,10 +1741,10 @@
         <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1741,15 +1755,15 @@
         <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -1758,10 +1772,10 @@
         <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1772,7 +1786,7 @@
         <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -1780,7 +1794,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="B55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -1789,10 +1803,10 @@
         <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,51 +1817,51 @@
         <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
+    <row r="57" spans="1:6">
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="B61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" t="s">
-        <v>63</v>
-      </c>
-      <c r="F61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -1856,10 +1870,10 @@
         <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1870,7 +1884,7 @@
         <v>61</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
         <v>62</v>
@@ -1878,7 +1892,7 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -1887,10 +1901,10 @@
         <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="2:6">
@@ -1901,7 +1915,7 @@
         <v>61</v>
       </c>
       <c r="E66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F66" t="s">
         <v>62</v>
@@ -1909,7 +1923,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -1918,10 +1932,10 @@
         <v>61</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -1932,7 +1946,7 @@
         <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F68" t="s">
         <v>62</v>
@@ -1940,7 +1954,7 @@
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -1949,10 +1963,10 @@
         <v>61</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="2:6">
@@ -1963,15 +1977,15 @@
         <v>61</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -1980,7 +1994,7 @@
         <v>61</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F71" t="s">
         <v>73</v>
@@ -1994,15 +2008,15 @@
         <v>61</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -2011,7 +2025,10 @@
         <v>61</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="F73" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="2:6">
@@ -2022,15 +2039,15 @@
         <v>61</v>
       </c>
       <c r="E74" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -2039,7 +2056,7 @@
         <v>61</v>
       </c>
       <c r="E75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="2:6">
@@ -2050,7 +2067,7 @@
         <v>61</v>
       </c>
       <c r="E76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F76" t="s">
         <v>78</v>
@@ -2058,7 +2075,7 @@
     </row>
     <row r="77" spans="2:6">
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -2067,7 +2084,7 @@
         <v>61</v>
       </c>
       <c r="E77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="2:6">
@@ -2078,7 +2095,7 @@
         <v>61</v>
       </c>
       <c r="E78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F78" t="s">
         <v>78</v>
@@ -2086,7 +2103,7 @@
     </row>
     <row r="79" spans="2:6">
       <c r="B79" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -2095,7 +2112,7 @@
         <v>61</v>
       </c>
       <c r="E79" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="2:6">
@@ -2106,7 +2123,7 @@
         <v>61</v>
       </c>
       <c r="E80" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F80" t="s">
         <v>78</v>
@@ -2114,7 +2131,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="B81" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -2123,10 +2140,7 @@
         <v>61</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
-      </c>
-      <c r="F81" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2137,7 +2151,7 @@
         <v>61</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F82" t="s">
         <v>78</v>
@@ -2145,19 +2159,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="B83" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E83" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2165,57 +2179,57 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" t="s">
         <v>131</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>132</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" t="s">
+        <v>132</v>
+      </c>
+      <c r="F86" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F91" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="B90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" t="s">
-        <v>92</v>
-      </c>
-      <c r="E90" t="s">
-        <v>87</v>
-      </c>
-      <c r="F90" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" t="s">
-        <v>87</v>
-      </c>
-      <c r="F91" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -2224,10 +2238,10 @@
         <v>92</v>
       </c>
       <c r="E92" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="F92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2238,7 +2252,7 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="F93" t="s">
         <v>93</v>
@@ -2246,7 +2260,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="B94" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -2255,7 +2269,7 @@
         <v>92</v>
       </c>
       <c r="E94" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="F94" t="s">
         <v>137</v>
@@ -2269,54 +2283,85 @@
         <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="B96" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
       </c>
       <c r="D96" t="s">
         <v>92</v>
       </c>
       <c r="E96" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F96" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" t="s">
-        <v>99</v>
-      </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
         <v>92</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
+        <v>54</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="2:6">
-      <c r="C98" t="s">
-        <v>11</v>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D98" t="s">
         <v>92</v>
       </c>
       <c r="E98" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" t="s">
         <v>97</v>
       </c>
-      <c r="F98" t="s">
+    </row>
+    <row r="100" spans="2:6">
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AgvServerClient通讯协议.xlsx
+++ b/AgvServerClient通讯协议.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="141">
   <si>
     <t>AGV的Server和Client间的通讯协议(Tcp/Ip)
 client端连接server端的固定端口8989端口.
@@ -475,19 +475,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;datalist&gt;&lt;list&gt;&lt;list&gt;&lt;list&gt;&lt;list&gt;...   &lt;/datalist&gt;(list包含一条agv信息）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;name&gt;&lt;ip&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;agvid&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,23 +512,6 @@
   </si>
   <si>
     <r>
-      <t>实时上报日志内容</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(periodica 是没有queuenumber )</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>包括 x y rotation id</t>
     </r>
     <r>
@@ -655,6 +630,23 @@
   </si>
   <si>
     <t>&lt;line&gt;&lt;arc&gt;&lt;station&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实时上报日志内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(periodica 是没有queuenumber ) &lt;id&gt;&lt;time&gt;&lt;level&gt;&lt;msg&gt;s</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1093,7 +1085,7 @@
     </row>
     <row r="2" spans="1:9" ht="135.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1159,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1176,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1207,7 +1199,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1266,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1311,7 +1303,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1322,7 +1314,7 @@
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1331,10 +1323,10 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1346,7 +1338,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
         <v>29</v>
@@ -1425,7 +1417,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -1459,7 +1451,7 @@
         <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
@@ -1691,7 +1683,7 @@
         <v>59</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1744,7 +1736,7 @@
         <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1758,7 +1750,7 @@
         <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1775,7 +1767,7 @@
         <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1803,10 +1795,10 @@
         <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1837,7 +1829,7 @@
         <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1873,7 +1865,7 @@
         <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1904,7 +1896,7 @@
         <v>66</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="2:6">
@@ -1935,7 +1927,7 @@
         <v>68</v>
       </c>
       <c r="F67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -1966,7 +1958,7 @@
         <v>70</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="2:6">
@@ -2190,19 +2182,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="B85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" t="s">
         <v>129</v>
       </c>
-      <c r="C85" t="s">
+      <c r="F85" t="s">
         <v>130</v>
-      </c>
-      <c r="D85" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" t="s">
-        <v>132</v>
-      </c>
-      <c r="F85" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2210,13 +2202,13 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" t="s">
         <v>131</v>
-      </c>
-      <c r="E86" t="s">
-        <v>132</v>
-      </c>
-      <c r="F86" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2224,7 +2216,7 @@
         <v>89</v>
       </c>
       <c r="F91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2241,7 +2233,7 @@
         <v>87</v>
       </c>
       <c r="F92" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2269,10 +2261,10 @@
         <v>92</v>
       </c>
       <c r="E94" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2283,7 +2275,7 @@
         <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F95" t="s">
         <v>93</v>
@@ -2303,7 +2295,7 @@
         <v>54</v>
       </c>
       <c r="F96" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="2:6">
@@ -2334,7 +2326,7 @@
         <v>59</v>
       </c>
       <c r="F98" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="2:6">

--- a/AgvServerClient通讯协议.xlsx
+++ b/AgvServerClient通讯协议.xlsx
@@ -480,10 +480,6 @@
   </si>
   <si>
     <t>&lt;name&gt;&lt;ip&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">subscribe </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -647,6 +643,10 @@
       </rPr>
       <t>(periodica 是没有queuenumber ) &lt;id&gt;&lt;time&gt;&lt;level&gt;&lt;msg&gt;s</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodica</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="2" spans="1:9" ht="135.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1168,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1199,7 +1199,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1258,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1303,7 +1303,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1314,7 +1314,7 @@
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1323,10 +1323,10 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" t="s">
         <v>138</v>
-      </c>
-      <c r="F21" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1338,7 +1338,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
         <v>29</v>
@@ -1417,7 +1417,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -1448,10 +1448,10 @@
         <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
@@ -1683,7 +1683,7 @@
         <v>59</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1829,7 +1829,7 @@
         <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1865,7 +1865,7 @@
         <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1896,7 +1896,7 @@
         <v>66</v>
       </c>
       <c r="F65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="2:6">
@@ -1927,7 +1927,7 @@
         <v>68</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -1958,7 +1958,7 @@
         <v>70</v>
       </c>
       <c r="F69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="2:6">
@@ -2182,19 +2182,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="B85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" t="s">
         <v>126</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>127</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>128</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>129</v>
-      </c>
-      <c r="F85" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2202,13 +2202,13 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" t="s">
         <v>128</v>
       </c>
-      <c r="E86" t="s">
-        <v>129</v>
-      </c>
       <c r="F86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2216,7 +2216,7 @@
         <v>89</v>
       </c>
       <c r="F91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2233,7 +2233,7 @@
         <v>87</v>
       </c>
       <c r="F92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2261,10 +2261,10 @@
         <v>92</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2275,7 +2275,7 @@
         <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F95" t="s">
         <v>93</v>
@@ -2295,7 +2295,7 @@
         <v>54</v>
       </c>
       <c r="F96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="2:6">
@@ -2326,7 +2326,7 @@
         <v>59</v>
       </c>
       <c r="F98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="2:6">

--- a/AgvServerClient通讯协议.xlsx
+++ b/AgvServerClient通讯协议.xlsx
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/AgvServerClient通讯协议.xlsx
+++ b/AgvServerClient通讯协议.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="143">
   <si>
     <t>AGV的Server和Client间的通讯协议(Tcp/Ip)
 client端连接server端的固定端口8989端口.
@@ -255,231 +255,348 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订阅车辆信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订阅后，server会实时发送所有车辆的信息给client,用于显示小车位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>periodica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息) +&lt;taskid&gt;(成功后返回taskid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建任务(创建到X点的任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建任务(创建指定车辆到X点的任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agvToX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建任务(创建经过Y点到X点的任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passYtoX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建任务(创建指定车辆经过Y点到X点的任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agvPassYtoX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询任务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;taskid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;status&gt;(任务当前状态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未分配任务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;datalist&gt;&lt;list&gt;&lt;list&gt;&lt;list&gt;…&lt;/datalist&gt; (每个list包含一个任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在执行任务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成任务列表(today)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listDoneToday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listUndo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listDoing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成任务列表(all)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listDone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成任务列表(from to 时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listDuring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;from&gt;&lt;to&gt; 格式是yyyy-MM-dd hh:mm:ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询日志 from to 时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;datalist&gt;&lt;list&gt;&lt;list&gt;&lt;list&gt;…&lt;/datalist&gt; (每个list包含一个日志)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅以后，日志将实时更新到client端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订阅车辆信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cancelSubscribe </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订阅小车状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消日志订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小车列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加小车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除小车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改小车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agvManagge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;datalist&gt;&lt;list&gt;&lt;list&gt;&lt;list&gt;&lt;list&gt;...   &lt;/datalist&gt;(list包含一条agv信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;name&gt;&lt;ip&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)&lt;id&gt;(添加成功后该用户的id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求:
+&lt;xml&gt;
+    &lt;type&gt;&lt;/type&gt;
+    &lt;todo&gt;&lt;/todo&gt;
+    &lt;access_token&gt;&lt;/access_token&gt;(未登录时可以没有该项)
+    &lt;queuenumber&gt;&lt;/queuenumber&gt;
+    &lt;data&gt;
+        &lt;参数1&gt;&lt;/参数1&gt;&lt;参数2&gt;&lt;/参数2&gt;...
+    &lt;/data&gt;
+&lt;/xml&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;access_token&gt;&lt;id&gt;(成功时会返回access_token和id，role,以后所有请求都要带着这个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;id&gt;//如果登出当前用户，什么也不用。(是否设置管理员让其他人强制下线呢？还是不了?).所以这里最好还是来个ID吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;id&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;name&gt;&lt;ip&gt;&lt;agvid&gt;(将车辆agvid的那么和ip改成新的)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;x&gt; //可选项&lt;xWaitType&gt;&lt;xWaitTime&gt;(type:0等待时间，1等待信号，2不等待。)（waitTime是等待时间，在type是0的时候有用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;agvid&gt;+&lt;x&gt;//可选项&lt;xWaitType&gt;&lt;xWaitTime&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;y&gt;+&lt;x&gt;//可选项&lt;xWaitType&gt;&lt;xWaitTime&gt;&lt;yWaitType&gt;&lt;yWaitTime&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;y&gt;+&lt;x&gt;+&lt;agvid&gt;//可选项&lt;xWaitType&gt;&lt;xWaitTime&gt;&lt;yWaitType&gt;&lt;yWaitTime&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个任务的详情(包括站点信息、等待信息等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;taskid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;id&gt;&lt;produceTime&gt;&lt;doTime&gt;&lt;doneTime&gt;&lt;excuteCar&gt;&lt;status&gt;+&lt;datalist&gt;&lt;list&gt;&lt;list&gt;每一个list是一个任务节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;from&gt;&lt;to&gt; 格式是yyyy-MM-dd hh:mm:ss &lt;trace&gt; &lt;debug&gt; &lt;info&gt; &lt;warn&gt; &lt;error&gt; &lt;fatal&gt; (这些级别为true或者false，true表示包括这部分 false不包括)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;trace&gt; &lt;debug&gt; &lt;info&gt; &lt;warn&gt; &lt;error&gt; &lt;fatal&gt; (这些级别为true或者false，true表示包括这部分 false不包括)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个log包含如下内容 level time msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;username&gt; + &lt;oldpassword&gt; +&lt;newpassword&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;line&gt;&lt;arc&gt;&lt;station&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">subscribe </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>订阅后，server会实时发送小车状态给client，用于显示小车状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>periodica</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息) +&lt;taskid&gt;(成功后返回taskid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建任务(创建到X点的任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建任务(创建指定车辆到X点的任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agvToX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建任务(创建经过Y点到X点的任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passYtoX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建任务(创建指定车辆经过Y点到X点的任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agvPassYtoX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询任务状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queryStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;taskid&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;status&gt;(任务当前状态)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未分配任务列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;datalist&gt;&lt;list&gt;&lt;list&gt;&lt;list&gt;…&lt;/datalist&gt; (每个list包含一个任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在执行任务列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经完成任务列表(today)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listDoneToday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listUndo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listDoing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经完成任务列表(all)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listDone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经完成任务列表(from to 时间)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listDuring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;from&gt;&lt;to&gt; 格式是yyyy-MM-dd hh:mm:ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询日志 from to 时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询所有日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;datalist&gt;&lt;list&gt;&lt;list&gt;&lt;list&gt;…&lt;/datalist&gt; (每个list包含一个日志)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订阅日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订阅以后，日志将实时更新到client端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消订阅车辆信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cancelSubscribe </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消订阅小车状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消日志订阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订阅小车状态（用于监控画面实时显示小车位置）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小车列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加小车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除小车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改小车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agvManagge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;datalist&gt;&lt;list&gt;&lt;list&gt;&lt;list&gt;&lt;list&gt;...   &lt;/datalist&gt;(list包含一条agv信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;name&gt;&lt;ip&gt;</t>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅车辆信息(POSITION)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅小车状态（STATUS）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -502,14 +619,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>包括里程、弧度、卡号、速度、转向、忙率、状态、电机状态、系统电压、系统电流、磁条位置、受障情况、当前命令、当前队列编号、设备地址等</t>
+      <t>包括</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>包括 x y rotation id</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里程、弧度、卡号、速度、转向、忙率、状态、电机状态、系统电压、系统电流、磁条位置、受障情况、当前命令、当前队列编号、设备地址等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -521,117 +656,19 @@
       </rPr>
       <t>(periodica 是没有queuenumber )</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)&lt;id&gt;(添加成功后该用户的id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求:
-&lt;xml&gt;
-    &lt;type&gt;&lt;/type&gt;
-    &lt;todo&gt;&lt;/todo&gt;
-    &lt;access_token&gt;&lt;/access_token&gt;(未登录时可以没有该项)
-    &lt;queuenumber&gt;&lt;/queuenumber&gt;
-    &lt;data&gt;
-        &lt;参数1&gt;&lt;/参数1&gt;&lt;参数2&gt;&lt;/参数2&gt;...
-    &lt;/data&gt;
-&lt;/xml&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;access_token&gt;&lt;id&gt;(成功时会返回access_token和id，role,以后所有请求都要带着这个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;id&gt;//如果登出当前用户，什么也不用。(是否设置管理员让其他人强制下线呢？还是不了?).所以这里最好还是来个ID吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;id&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;name&gt;&lt;ip&gt;&lt;agvid&gt;(将车辆agvid的那么和ip改成新的)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;x&gt; //可选项&lt;xWaitType&gt;&lt;xWaitTime&gt;(type:0等待时间，1等待信号，2不等待。)（waitTime是等待时间，在type是0的时候有用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;agvid&gt;+&lt;x&gt;//可选项&lt;xWaitType&gt;&lt;xWaitTime&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;y&gt;+&lt;x&gt;//可选项&lt;xWaitType&gt;&lt;xWaitTime&gt;&lt;yWaitType&gt;&lt;yWaitTime&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;y&gt;+&lt;x&gt;+&lt;agvid&gt;//可选项&lt;xWaitType&gt;&lt;xWaitTime&gt;&lt;yWaitType&gt;&lt;yWaitTime&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个任务的详情(包括站点信息、等待信息等)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;taskid&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息)+&lt;id&gt;&lt;produceTime&gt;&lt;doTime&gt;&lt;doneTime&gt;&lt;excuteCar&gt;&lt;status&gt;+&lt;datalist&gt;&lt;list&gt;&lt;list&gt;每一个list是一个任务节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;from&gt;&lt;to&gt; 格式是yyyy-MM-dd hh:mm:ss &lt;trace&gt; &lt;debug&gt; &lt;info&gt; &lt;warn&gt; &lt;error&gt; &lt;fatal&gt; (这些级别为true或者false，true表示包括这部分 false不包括)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;trace&gt; &lt;debug&gt; &lt;info&gt; &lt;warn&gt; &lt;error&gt; &lt;fatal&gt; (这些级别为true或者false，true表示包括这部分 false不包括)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个log包含如下内容 level time msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;username&gt; + &lt;oldpassword&gt; +&lt;newpassword&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;line&gt;&lt;arc&gt;&lt;station&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>实时上报日志内容</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包括 x y rotation id</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -641,12 +678,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(periodica 是没有queuenumber ) &lt;id&gt;&lt;time&gt;&lt;level&gt;&lt;msg&gt;s</t>
+      <t>(periodica 是没有queuenumber )</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodica</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实时上报日志内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;id&gt;&lt;time&gt;&lt;level&gt;&lt;msg&gt;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,6 +756,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1055,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1085,7 +1145,7 @@
     </row>
     <row r="2" spans="1:9" ht="135.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1151,7 +1211,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1168,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1199,7 +1259,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1258,7 +1318,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1303,7 +1363,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1314,7 +1374,7 @@
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1323,10 +1383,10 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1338,7 +1398,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
         <v>29</v>
@@ -1352,7 +1412,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -1408,7 +1468,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1439,7 +1499,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>55</v>
@@ -1448,15 +1508,15 @@
         <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" t="s">
-        <v>114</v>
+        <v>134</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1465,7 +1525,7 @@
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -1479,21 +1539,63 @@
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1"/>
+    <row r="32" spans="1:6">
+      <c r="B32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -1502,10 +1604,7 @@
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1516,97 +1615,23 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" t="s">
-        <v>45</v>
-      </c>
-    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1"/>
+    <row r="38" spans="1:6" ht="15" customHeight="1"/>
+    <row r="39" spans="1:6" ht="15" customHeight="1"/>
     <row r="41" spans="1:6">
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" t="s">
-        <v>45</v>
+      <c r="A41" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -1615,32 +1640,29 @@
         <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="B44" s="2" t="s">
-        <v>100</v>
+      <c r="B44" t="s">
+        <v>40</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -1649,7 +1671,7 @@
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
         <v>37</v>
@@ -1663,7 +1685,7 @@
         <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -1671,24 +1693,24 @@
     </row>
     <row r="46" spans="1:6">
       <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
       </c>
       <c r="D46" t="s">
         <v>35</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>113</v>
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1697,663 +1719,700 @@
         <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:6">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
       </c>
       <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>59</v>
+      </c>
+      <c r="E73" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" t="s">
+        <v>70</v>
+      </c>
+      <c r="F78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" t="s">
+        <v>70</v>
+      </c>
+      <c r="F79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" t="s">
+        <v>80</v>
+      </c>
+      <c r="F83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89" t="s">
+        <v>83</v>
+      </c>
+      <c r="F89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" t="s">
+        <v>85</v>
+      </c>
+      <c r="F99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>90</v>
+      </c>
+      <c r="E100" t="s">
+        <v>85</v>
+      </c>
+      <c r="F100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="B101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>90</v>
+      </c>
+      <c r="E101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E102" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="B103" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>90</v>
+      </c>
+      <c r="E103" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>90</v>
+      </c>
+      <c r="E104" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="B105" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="B106" t="s">
         <v>97</v>
       </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="B55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="B57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="B63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" t="s">
-        <v>63</v>
-      </c>
-      <c r="F63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" t="s">
-        <v>63</v>
-      </c>
-      <c r="F64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" t="s">
-        <v>68</v>
-      </c>
-      <c r="F67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
-        <v>61</v>
-      </c>
-      <c r="E68" t="s">
-        <v>68</v>
-      </c>
-      <c r="F68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" t="s">
-        <v>70</v>
-      </c>
-      <c r="F69" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" t="s">
-        <v>76</v>
-      </c>
-      <c r="F73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s">
-        <v>61</v>
-      </c>
-      <c r="E74" t="s">
-        <v>76</v>
-      </c>
-      <c r="F74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>61</v>
-      </c>
-      <c r="E75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" t="s">
-        <v>82</v>
-      </c>
-      <c r="F76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>61</v>
-      </c>
-      <c r="E78" t="s">
-        <v>83</v>
-      </c>
-      <c r="F78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>61</v>
-      </c>
-      <c r="E79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s">
-        <v>61</v>
-      </c>
-      <c r="E80" t="s">
-        <v>81</v>
-      </c>
-      <c r="F80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="B81" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s">
-        <v>61</v>
-      </c>
-      <c r="E82" t="s">
-        <v>85</v>
-      </c>
-      <c r="F82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" t="s">
-        <v>87</v>
-      </c>
-      <c r="F83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s">
-        <v>61</v>
-      </c>
-      <c r="E84" t="s">
-        <v>87</v>
-      </c>
-      <c r="F84" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="B85" t="s">
-        <v>125</v>
-      </c>
-      <c r="C85" t="s">
-        <v>126</v>
-      </c>
-      <c r="D85" t="s">
-        <v>127</v>
-      </c>
-      <c r="E85" t="s">
-        <v>128</v>
-      </c>
-      <c r="F85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="C86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s">
-        <v>127</v>
-      </c>
-      <c r="E86" t="s">
-        <v>128</v>
-      </c>
-      <c r="F86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F91" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="B92" t="s">
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
         <v>90</v>
       </c>
-      <c r="C92" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" t="s">
-        <v>87</v>
-      </c>
-      <c r="F92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s">
-        <v>92</v>
-      </c>
-      <c r="E93" t="s">
-        <v>87</v>
-      </c>
-      <c r="F93" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="B94" t="s">
-        <v>91</v>
-      </c>
-      <c r="C94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" t="s">
-        <v>92</v>
-      </c>
-      <c r="E94" t="s">
-        <v>131</v>
-      </c>
-      <c r="F94" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="C95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s">
-        <v>92</v>
-      </c>
-      <c r="E95" t="s">
-        <v>131</v>
-      </c>
-      <c r="F95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="B96" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" t="s">
-        <v>92</v>
-      </c>
-      <c r="E96" t="s">
-        <v>54</v>
-      </c>
-      <c r="F96" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="C97" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s">
-        <v>92</v>
-      </c>
-      <c r="E97" t="s">
-        <v>54</v>
-      </c>
-      <c r="F97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" t="s">
+      <c r="E106" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D98" t="s">
-        <v>92</v>
-      </c>
-      <c r="E98" t="s">
-        <v>59</v>
-      </c>
-      <c r="F98" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" t="s">
-        <v>92</v>
-      </c>
-      <c r="E99" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s">
-        <v>92</v>
-      </c>
-      <c r="E100" t="s">
-        <v>97</v>
-      </c>
-      <c r="F100" t="s">
+    </row>
+    <row r="107" spans="1:6">
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" t="s">
+        <v>95</v>
+      </c>
+      <c r="F107" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AgvServerClient通讯协议.xlsx
+++ b/AgvServerClient通讯协议.xlsx
@@ -569,10 +569,6 @@
   </si>
   <si>
     <t>create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;line&gt;&lt;arc&gt;&lt;station&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -700,6 +696,10 @@
       </rPr>
       <t xml:space="preserve"> &lt;id&gt;&lt;time&gt;&lt;level&gt;&lt;msg&gt;</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;line&gt;&lt;arc&gt;&lt;station&gt; [station的格式:id,name,x,y,rfid,r,g,b;]  [line的格式:id,startStation,endStation,rate,r,g,b]  [arc的格式:id,startStation,endStation,rate,p1x,p1y,p2x,p2y,r,g,b]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1386,7 +1386,7 @@
         <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1412,7 +1412,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1508,10 +1508,10 @@
         <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
@@ -1547,7 +1547,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -1556,7 +1556,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="B34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>55</v>
@@ -1590,7 +1590,7 @@
         <v>57</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2385,7 +2385,7 @@
         <v>57</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:6">

--- a/AgvServerClient通讯协议.xlsx
+++ b/AgvServerClient通讯协议.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="151">
   <si>
     <t>AGV的Server和Client间的通讯协议(Tcp/Ip)
 client端连接server端的固定端口8989端口.
@@ -700,6 +700,38 @@
   </si>
   <si>
     <t>&lt;line&gt;&lt;arc&gt;&lt;station&gt; [station的格式:id,name,x,y,rfid,r,g,b;]  [line的格式:id,startStation,endStation,rate,r,g,b]  [arc的格式:id,startStation,endStation,rate,p1x,p1y,p2x,p2y,r,g,b]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置背景图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息) 成功后，需要等待上传结束，然后等待10秒再关闭连接。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取背景图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ip&gt;&lt;port&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result&gt;(success/fail)+&lt;info&gt;(错误信息) &lt;file_name&gt;&lt;file_length&gt;成功的话会额外返回文件名称，接收数据保存成该文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ip&gt;&lt;port&gt;&lt;file_name&gt;&lt;file_length&gt; [ip和port是连接2121端口后，client自己的ip和port。File_name是文件名 file_length是文件长度] 文件大小不可超过16M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1621,96 +1653,107 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1"/>
-    <row r="38" spans="1:6" ht="15" customHeight="1"/>
-    <row r="39" spans="1:6" ht="15" customHeight="1"/>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1">
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1">
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="B42" t="s">
+    <row r="45" spans="1:6">
+      <c r="B45" t="s">
         <v>39</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
         <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
         <v>35</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1719,32 +1762,29 @@
         <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -1753,7 +1793,7 @@
         <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
         <v>45</v>
@@ -1761,7 +1801,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="B50" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -1770,627 +1810,630 @@
         <v>35</v>
       </c>
       <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
         <v>52</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="B58" t="s">
+    <row r="61" spans="1:6">
+      <c r="B61" t="s">
         <v>99</v>
       </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" t="s">
-        <v>104</v>
-      </c>
-      <c r="F58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="B60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
       <c r="C61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
         <v>103</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="B62" t="s">
-        <v>101</v>
-      </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:6">
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
         <v>103</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="B64" t="s">
-        <v>102</v>
-      </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
         <v>103</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6">
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
         <v>103</v>
       </c>
       <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" t="s">
         <v>107</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="B70" t="s">
+    <row r="73" spans="1:6">
+      <c r="B73" t="s">
         <v>62</v>
       </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>59</v>
-      </c>
-      <c r="E70" t="s">
-        <v>61</v>
-      </c>
-      <c r="F70" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s">
-        <v>59</v>
-      </c>
-      <c r="E71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="B72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E72" t="s">
-        <v>64</v>
-      </c>
-      <c r="F72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
         <v>59</v>
       </c>
       <c r="E73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="B74" t="s">
-        <v>65</v>
-      </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
         <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F74" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:6">
+      <c r="B75" t="s">
+        <v>63</v>
+      </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
         <v>59</v>
       </c>
       <c r="E75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="B76" t="s">
-        <v>67</v>
-      </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
         <v>59</v>
       </c>
       <c r="E76" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:6">
+      <c r="B77" t="s">
+        <v>65</v>
+      </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
         <v>59</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="B78" t="s">
-        <v>69</v>
-      </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
         <v>59</v>
       </c>
       <c r="E78" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:6">
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
         <v>59</v>
       </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F79" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="B80" t="s">
-        <v>73</v>
-      </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
         <v>59</v>
       </c>
       <c r="E80" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F80" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="2:6">
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
         <v>59</v>
       </c>
       <c r="E81" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" t="s">
-        <v>75</v>
-      </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
         <v>59</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="F82" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="2:6">
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
         <v>59</v>
       </c>
       <c r="E83" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F83" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" t="s">
-        <v>77</v>
-      </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
         <v>59</v>
       </c>
       <c r="E84" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="F84" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="2:6">
+      <c r="B85" t="s">
+        <v>75</v>
+      </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
         <v>59</v>
       </c>
       <c r="E85" t="s">
-        <v>81</v>
-      </c>
-      <c r="F85" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" t="s">
-        <v>78</v>
-      </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
         <v>59</v>
       </c>
       <c r="E86" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="F86" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="2:6">
+      <c r="B87" t="s">
+        <v>77</v>
+      </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
         <v>59</v>
       </c>
       <c r="E87" t="s">
-        <v>79</v>
-      </c>
-      <c r="F87" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" t="s">
-        <v>82</v>
-      </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
         <v>59</v>
       </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="F88" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="2:6">
+      <c r="B89" t="s">
+        <v>78</v>
+      </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
         <v>59</v>
       </c>
       <c r="E89" t="s">
-        <v>83</v>
-      </c>
-      <c r="F89" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" t="s">
-        <v>84</v>
-      </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
         <v>59</v>
       </c>
       <c r="E90" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F90" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="2:6">
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
         <v>59</v>
       </c>
       <c r="E91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>59</v>
+      </c>
+      <c r="E92" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" t="s">
         <v>85</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94" t="s">
+        <v>85</v>
+      </c>
+      <c r="F94" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="2:6">
-      <c r="B92" t="s">
+    <row r="95" spans="2:6">
+      <c r="B95" t="s">
         <v>120</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C95" t="s">
         <v>121</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D95" t="s">
         <v>122</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E95" t="s">
         <v>123</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F95" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="2:6">
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s">
+    <row r="96" spans="2:6">
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
         <v>122</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E96" t="s">
         <v>123</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F96" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F101" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="B99" t="s">
+    <row r="102" spans="1:6">
+      <c r="B102" t="s">
         <v>88</v>
       </c>
-      <c r="C99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" t="s">
-        <v>85</v>
-      </c>
-      <c r="F99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s">
-        <v>90</v>
-      </c>
-      <c r="E100" t="s">
-        <v>85</v>
-      </c>
-      <c r="F100" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="B101" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" t="s">
-        <v>90</v>
-      </c>
-      <c r="E101" t="s">
-        <v>126</v>
-      </c>
-      <c r="F101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
       <c r="C102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
         <v>90</v>
       </c>
       <c r="E102" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F102" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="B103" t="s">
-        <v>92</v>
-      </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
         <v>90</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:6">
+      <c r="B104" t="s">
+        <v>89</v>
+      </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
         <v>90</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="B105" t="s">
-        <v>93</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>55</v>
+      <c r="C105" t="s">
+        <v>11</v>
       </c>
       <c r="D105" t="s">
         <v>90</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
+      </c>
+      <c r="F105" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="B106" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
@@ -2399,7 +2442,10 @@
         <v>90</v>
       </c>
       <c r="E106" t="s">
-        <v>95</v>
+        <v>54</v>
+      </c>
+      <c r="F106" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2410,9 +2456,54 @@
         <v>90</v>
       </c>
       <c r="E107" t="s">
+        <v>54</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="B108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="B109" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" t="s">
         <v>95</v>
       </c>
-      <c r="F107" t="s">
+    </row>
+    <row r="110" spans="1:6">
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>90</v>
+      </c>
+      <c r="E110" t="s">
+        <v>95</v>
+      </c>
+      <c r="F110" t="s">
         <v>12</v>
       </c>
     </row>
